--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_0_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3182518.524741584</v>
+        <v>1631241.856811976</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6552513.316172467</v>
+        <v>17695727.61493658</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7381353.115552372</v>
+        <v>4473273.683666804</v>
       </c>
     </row>
     <row r="11">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.755108472589199e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.243127883067e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.105604496842716e-11</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.507050567146507e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -5446,25 +5446,25 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -7175,25 +7175,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>26.50204029773903</v>
+        <v>26.5020402977388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.50204029773903</v>
+        <v>26.5020402977388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>26.50204029773903</v>
+        <v>26.5020402977388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,76 +23255,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.9605020895114</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C11" t="n">
-        <v>75.25866269652261</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D11" t="n">
-        <v>59.43163189668957</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E11" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F11" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G11" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H11" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I11" t="n">
-        <v>42.87726772795465</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>354.6114141385819</v>
       </c>
       <c r="R11" t="n">
-        <v>18.91315103193025</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S11" t="n">
-        <v>10.14259167045582</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7265160450307033</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V11" t="n">
-        <v>61.01905078441655</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>69.80313026276508</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>94.25950798485286</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="12">
@@ -23334,76 +23334,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U12" t="n">
-        <v>10.79019035854258</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V12" t="n">
-        <v>7.887858517570265</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W12" t="n">
-        <v>47.12676205780031</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.762173369154596</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23413,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6039317473980326</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S13" t="n">
-        <v>7.808307249808777</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U13" t="n">
-        <v>45.74607419335764</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W13" t="n">
-        <v>50.07440318987045</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="14">
@@ -23492,76 +23492,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.9605020895114</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C14" t="n">
-        <v>75.25866269652261</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D14" t="n">
-        <v>59.43163189668957</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E14" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F14" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G14" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H14" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I14" t="n">
-        <v>42.87726772795463</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>354.6114141385818</v>
       </c>
       <c r="R14" t="n">
-        <v>18.91315103193028</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S14" t="n">
-        <v>10.14259167045583</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7265160450307064</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V14" t="n">
-        <v>61.01905078441655</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W14" t="n">
-        <v>69.80313026276508</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X14" t="n">
-        <v>94.25950798485286</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="15">
@@ -23571,76 +23571,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U15" t="n">
-        <v>10.79019035854259</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V15" t="n">
-        <v>7.887858517570265</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W15" t="n">
-        <v>47.12676205780031</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.762173369154596</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="16">
@@ -23650,76 +23650,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6039317473980361</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S16" t="n">
-        <v>7.808307249808763</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U16" t="n">
-        <v>45.74607419335087</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W16" t="n">
-        <v>50.07440318987045</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="17">
@@ -23729,76 +23729,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.9605020895114</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C17" t="n">
-        <v>75.25866269652261</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D17" t="n">
-        <v>59.43163189668957</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E17" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F17" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G17" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H17" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I17" t="n">
-        <v>42.87726772795465</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>354.6114141385818</v>
       </c>
       <c r="R17" t="n">
-        <v>18.91315103193025</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S17" t="n">
-        <v>10.14259167045582</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7265160450307033</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V17" t="n">
-        <v>61.01905078441655</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W17" t="n">
-        <v>69.80313026276508</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X17" t="n">
-        <v>94.25950798485286</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="18">
@@ -23808,76 +23808,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U18" t="n">
-        <v>10.79019035854258</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V18" t="n">
-        <v>7.887858517570265</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W18" t="n">
-        <v>47.12676205780031</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.762173369154596</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="19">
@@ -23887,76 +23887,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6039317473980326</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S19" t="n">
-        <v>7.808307249808777</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U19" t="n">
-        <v>45.74607419335764</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W19" t="n">
-        <v>50.07440318987045</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="20">
@@ -23966,76 +23966,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110.9605020895114</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C20" t="n">
-        <v>75.25866269652261</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D20" t="n">
-        <v>59.43163189668957</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E20" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F20" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H20" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I20" t="n">
-        <v>42.87726772795465</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>354.6114141385818</v>
       </c>
       <c r="R20" t="n">
-        <v>18.91315103193025</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S20" t="n">
-        <v>10.14259167045582</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7265160450307033</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V20" t="n">
-        <v>61.01905078441655</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>69.80313026276508</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>94.25950798485286</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="21">
@@ -24045,76 +24045,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U21" t="n">
-        <v>10.79019035854258</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V21" t="n">
-        <v>7.887858517570265</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W21" t="n">
-        <v>47.12676205780031</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.762173369154596</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="22">
@@ -24124,76 +24124,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6039317473980326</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S22" t="n">
-        <v>7.808307249808777</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U22" t="n">
-        <v>45.74607419335764</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W22" t="n">
-        <v>50.07440318987045</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="23">
@@ -24203,76 +24203,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110.9605020895114</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C23" t="n">
-        <v>75.25866269652261</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D23" t="n">
-        <v>59.43163189668957</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E23" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F23" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H23" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I23" t="n">
-        <v>42.87726772795465</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>354.6114141385818</v>
       </c>
       <c r="R23" t="n">
-        <v>18.91315103193025</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S23" t="n">
-        <v>10.14259167045582</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7265160450307033</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V23" t="n">
-        <v>61.01905078441655</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W23" t="n">
-        <v>69.80313026276508</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>94.25950798485286</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="24">
@@ -24282,76 +24282,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U24" t="n">
-        <v>10.79019035854258</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V24" t="n">
-        <v>7.887858517570265</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W24" t="n">
-        <v>47.12676205780031</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.762173369154596</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="25">
@@ -24361,76 +24361,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6039317473980326</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S25" t="n">
-        <v>7.808307249808777</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U25" t="n">
-        <v>45.74607419335764</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W25" t="n">
-        <v>50.07440318987045</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="26">
@@ -24440,76 +24440,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.9605020895113</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C26" t="n">
-        <v>75.25866269652258</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D26" t="n">
-        <v>59.43163189668954</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E26" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F26" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G26" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I26" t="n">
-        <v>42.8772677279546</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>354.6114141385818</v>
       </c>
       <c r="R26" t="n">
-        <v>18.91315103193025</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S26" t="n">
-        <v>10.1425916704558</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U26" t="n">
-        <v>0.726516045030678</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V26" t="n">
-        <v>61.01905078441652</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W26" t="n">
-        <v>69.80313026276505</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X26" t="n">
-        <v>94.25950798485283</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="27">
@@ -24519,76 +24519,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U27" t="n">
-        <v>10.79019035854256</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V27" t="n">
-        <v>7.887858517570237</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W27" t="n">
-        <v>47.12676205780028</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.762173369154567</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="28">
@@ -24598,76 +24598,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6039317473980077</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S28" t="n">
-        <v>7.808307249808735</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U28" t="n">
-        <v>45.74607419334654</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W28" t="n">
-        <v>50.07440318987042</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -24677,76 +24677,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.9605020895114</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C29" t="n">
-        <v>75.25866269652261</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D29" t="n">
-        <v>59.43163189668957</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E29" t="n">
-        <v>105.0295966205128</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F29" t="n">
-        <v>149.2214708948706</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G29" t="n">
-        <v>177.9524243091316</v>
+        <v>426.4405956388519</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8099008922426</v>
+        <v>372.1180001932838</v>
       </c>
       <c r="I29" t="n">
-        <v>42.87726772795465</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>349.8300169201785</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>373.423996318897</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>363.5234845345017</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>361.8325042475807</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>363.5568597901704</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>366.9177993485187</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>354.6114141385818</v>
       </c>
       <c r="R29" t="n">
-        <v>18.91315103193025</v>
+        <v>346.4667758941454</v>
       </c>
       <c r="S29" t="n">
-        <v>10.14259167045582</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7265160450307033</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V29" t="n">
-        <v>61.01905078441655</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
-        <v>69.80313026276508</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>94.25950798485286</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>127.8004799003897</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="30">
@@ -24756,76 +24756,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U30" t="n">
-        <v>10.79019035854258</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V30" t="n">
-        <v>7.887858517570265</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W30" t="n">
-        <v>47.12676205780031</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.762173369154596</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="31">
@@ -24835,76 +24835,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6039317473980326</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S31" t="n">
-        <v>7.808307249808777</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U31" t="n">
-        <v>45.74607419335764</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W31" t="n">
-        <v>50.07440318987045</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="32">
@@ -24914,76 +24914,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.9605020895113</v>
+        <v>15.33395218933975</v>
       </c>
       <c r="C32" t="n">
-        <v>75.25866269652258</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>59.43163189668954</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>105.0295966205128</v>
+        <v>9.403046720341251</v>
       </c>
       <c r="F32" t="n">
-        <v>149.2214708948706</v>
+        <v>53.59492099469907</v>
       </c>
       <c r="G32" t="n">
-        <v>177.9524243091316</v>
+        <v>83.6049143625725</v>
       </c>
       <c r="H32" t="n">
-        <v>111.8099008922426</v>
+        <v>29.28231891700441</v>
       </c>
       <c r="I32" t="n">
-        <v>42.87726772795462</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.994335643899073</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>30.58831504261758</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>20.68780325822236</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>18.99682297130135</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>20.72117851389102</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.08211807223935</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>11.77573286230248</v>
       </c>
       <c r="R32" t="n">
-        <v>18.91315103193023</v>
+        <v>3.631094617866032</v>
       </c>
       <c r="S32" t="n">
-        <v>10.14259167045579</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7265160450306749</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>61.01905078441652</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>69.80313026276505</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>94.25950798485283</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>127.8004799003897</v>
+        <v>32.17393000021821</v>
       </c>
     </row>
     <row r="33">
@@ -25050,19 +25050,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>10.79019035854255</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>7.887858517570237</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>47.12676205780028</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.762173369154567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6039317473980041</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.808307249808749</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.74607419335761</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>50.07440318987042</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,76 +25151,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.9605020895114</v>
+        <v>15.33395218933981</v>
       </c>
       <c r="C35" t="n">
-        <v>75.25866269652261</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>59.43163189668957</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>105.0295966205128</v>
+        <v>9.403046720341251</v>
       </c>
       <c r="F35" t="n">
-        <v>149.2214708948706</v>
+        <v>53.59492099469907</v>
       </c>
       <c r="G35" t="n">
-        <v>177.9524243091316</v>
+        <v>83.6049143625725</v>
       </c>
       <c r="H35" t="n">
-        <v>111.8099008922426</v>
+        <v>29.28231891700441</v>
       </c>
       <c r="I35" t="n">
-        <v>42.87726772795465</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6.994335643899073</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>30.58831504261758</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>20.68780325822236</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>18.99682297130135</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>20.72117851389102</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>24.08211807223935</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>11.77573286230248</v>
       </c>
       <c r="R35" t="n">
-        <v>18.91315103193025</v>
+        <v>3.631094617866032</v>
       </c>
       <c r="S35" t="n">
-        <v>10.14259167045582</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.7265160450307033</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>61.01905078441655</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>69.80313026276508</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>94.25950798485286</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.8004799003897</v>
+        <v>32.17393000021821</v>
       </c>
     </row>
     <row r="36">
@@ -25287,19 +25287,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>10.79019035854258</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>7.887858517570265</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>47.12676205780031</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.762173369154596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6039317473980326</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7.808307249808777</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.74607419335764</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>50.07440318987045</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,76 +25388,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.9605020895114</v>
+        <v>15.33395218933981</v>
       </c>
       <c r="C38" t="n">
-        <v>75.25866269652261</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>59.43163189668957</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>105.0295966205128</v>
+        <v>9.403046720341251</v>
       </c>
       <c r="F38" t="n">
-        <v>149.2214708948706</v>
+        <v>53.59492099469907</v>
       </c>
       <c r="G38" t="n">
-        <v>177.9524243091316</v>
+        <v>83.6049143625725</v>
       </c>
       <c r="H38" t="n">
-        <v>111.8099008922426</v>
+        <v>29.28231891700441</v>
       </c>
       <c r="I38" t="n">
-        <v>42.87726772795463</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>6.994335643899073</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>30.58831504261286</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>20.68780325822236</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>18.99682297130135</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>20.72117851389102</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>24.08211807223935</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>11.77573286230248</v>
       </c>
       <c r="R38" t="n">
-        <v>18.91315103192778</v>
+        <v>3.631094617866032</v>
       </c>
       <c r="S38" t="n">
-        <v>10.14259167045583</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7265160450307064</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>61.01905078441655</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>69.80313026276508</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>94.25950798485286</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>127.8004799003897</v>
+        <v>32.17393000021821</v>
       </c>
     </row>
     <row r="39">
@@ -25524,19 +25524,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>10.79019035854259</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>7.887858517570265</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>47.12676205780031</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.762173369154596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.6039317473980361</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>7.808307249808763</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>45.74607419335763</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>50.07440318987045</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,76 +25625,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.1696334656192</v>
+        <v>15.33395218933981</v>
       </c>
       <c r="C41" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>352.2387279966206</v>
+        <v>9.403046720341251</v>
       </c>
       <c r="F41" t="n">
-        <v>396.4306022709785</v>
+        <v>53.59492099469907</v>
       </c>
       <c r="G41" t="n">
-        <v>425.1615556852395</v>
+        <v>83.6049143625725</v>
       </c>
       <c r="H41" t="n">
-        <v>359.0190322683504</v>
+        <v>29.28231891700441</v>
       </c>
       <c r="I41" t="n">
-        <v>290.0863991040625</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>187.1313384208503</v>
+        <v>6.994335643899073</v>
       </c>
       <c r="L41" t="n">
-        <v>171.5818988392022</v>
+        <v>30.58831504261758</v>
       </c>
       <c r="M41" t="n">
-        <v>138.9352602797518</v>
+        <v>20.68780325822236</v>
       </c>
       <c r="N41" t="n">
-        <v>133.6102077246294</v>
+        <v>18.99682297130135</v>
       </c>
       <c r="O41" t="n">
-        <v>148.0530168059528</v>
+        <v>20.72117851389102</v>
       </c>
       <c r="P41" t="n">
-        <v>182.9902552191081</v>
+        <v>24.08211807223463</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.4894883479167</v>
+        <v>11.77573286230248</v>
       </c>
       <c r="R41" t="n">
-        <v>266.1222824080381</v>
+        <v>3.631094617866032</v>
       </c>
       <c r="S41" t="n">
-        <v>257.3517230465637</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>247.9356474211386</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>375.0096112764976</v>
+        <v>32.17393000021821</v>
       </c>
     </row>
     <row r="42">
@@ -25704,76 +25704,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9993217346504</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,76 +25783,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>163.8559857109393</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>247.8130631235059</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>255.0174386259166</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9552055694655</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,76 +25862,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.1696334656192</v>
+        <v>15.33395218933981</v>
       </c>
       <c r="C44" t="n">
-        <v>322.4677940726305</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>306.6407632727974</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2387279966206</v>
+        <v>9.403046720341251</v>
       </c>
       <c r="F44" t="n">
-        <v>396.4306022709785</v>
+        <v>53.59492099469907</v>
       </c>
       <c r="G44" t="n">
-        <v>425.1615556852395</v>
+        <v>83.6049143625725</v>
       </c>
       <c r="H44" t="n">
-        <v>359.0190322683504</v>
+        <v>29.28231891700441</v>
       </c>
       <c r="I44" t="n">
-        <v>290.0863991040625</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>187.1313384208503</v>
+        <v>6.994335643899073</v>
       </c>
       <c r="L44" t="n">
-        <v>171.5818988392022</v>
+        <v>30.58831504261758</v>
       </c>
       <c r="M44" t="n">
-        <v>138.9352602797518</v>
+        <v>20.68780325822236</v>
       </c>
       <c r="N44" t="n">
-        <v>133.6102077246294</v>
+        <v>18.99682297130135</v>
       </c>
       <c r="O44" t="n">
-        <v>148.0530168059528</v>
+        <v>20.72117851389102</v>
       </c>
       <c r="P44" t="n">
-        <v>182.9902552191081</v>
+        <v>24.08211807223935</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.4894883479167</v>
+        <v>11.77573286230248</v>
       </c>
       <c r="R44" t="n">
-        <v>266.1222824080381</v>
+        <v>3.631094617866032</v>
       </c>
       <c r="S44" t="n">
-        <v>257.3517230465637</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>247.9356474211386</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.0096112764976</v>
+        <v>32.17393000021821</v>
       </c>
     </row>
     <row r="45">
@@ -25941,76 +25941,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9993217346504</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>255.0969898936781</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>294.3358934339082</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>255.9713047452624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,76 +26020,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>171.7086235718666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>247.8130631235059</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>255.0174386259166</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9552055694655</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>297.2835345659783</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672530.390504786</v>
+        <v>7003.89660347579</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672530.3905047862</v>
+        <v>7003.896603475793</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672530.390504786</v>
+        <v>7003.896603475793</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672530.390504786</v>
+        <v>7003.896603475793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672530.390504786</v>
+        <v>7003.896603475796</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672530.3905047863</v>
+        <v>7003.896603475796</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672530.390504786</v>
+        <v>7003.896603475796</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672530.390504786</v>
+        <v>727781.6329187254</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672530.390504786</v>
+        <v>727781.6329187254</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672530.3905047862</v>
+        <v>727781.6329187256</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152797.9126996573</v>
+        <v>727781.6329187256</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152797.9126996574</v>
+        <v>727781.6329187254</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996991.2386902553</v>
+        <v>996991.2386902554</v>
       </c>
       <c r="C2" t="n">
         <v>996991.2386902554</v>
       </c>
       <c r="D2" t="n">
-        <v>996991.2386902556</v>
+        <v>996991.2386902554</v>
       </c>
       <c r="E2" t="n">
-        <v>896707.1873397158</v>
+        <v>9338.528804634407</v>
       </c>
       <c r="F2" t="n">
-        <v>896707.1873397161</v>
+        <v>9338.528804634409</v>
       </c>
       <c r="G2" t="n">
-        <v>896707.1873397159</v>
+        <v>9338.528804634409</v>
       </c>
       <c r="H2" t="n">
-        <v>896707.1873397158</v>
+        <v>9338.528804634409</v>
       </c>
       <c r="I2" t="n">
-        <v>896707.1873397159</v>
+        <v>9338.528804634378</v>
       </c>
       <c r="J2" t="n">
-        <v>896707.1873397162</v>
+        <v>9338.528804634378</v>
       </c>
       <c r="K2" t="n">
-        <v>896707.1873397158</v>
+        <v>9338.528804634378</v>
       </c>
       <c r="L2" t="n">
-        <v>896707.1873397159</v>
+        <v>970375.5105583001</v>
       </c>
       <c r="M2" t="n">
-        <v>896707.1873397158</v>
+        <v>970375.5105583005</v>
       </c>
       <c r="N2" t="n">
-        <v>896707.187339716</v>
+        <v>970375.5105583004</v>
       </c>
       <c r="O2" t="n">
-        <v>203730.5502662098</v>
+        <v>970375.5105583004</v>
       </c>
       <c r="P2" t="n">
-        <v>203730.5502662098</v>
+        <v>970375.5105583005</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465658.4581859658</v>
+        <v>12279.49979187125</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>197767.3051008863</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>274268.5450210234</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>395528.2485795181</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>395528.2485795182</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>395528.2485795181</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>395528.2485795181</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>395528.2485795181</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>395528.2485795183</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>395528.2485795181</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>395528.2485795181</v>
+        <v>548528.2675884124</v>
       </c>
       <c r="M4" t="n">
-        <v>395528.2485795181</v>
+        <v>548528.2675884126</v>
       </c>
       <c r="N4" t="n">
-        <v>395528.2485795182</v>
+        <v>548528.2675884126</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>548528.2675884125</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>548528.2675884126</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="F5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="G5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="H5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="I5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="J5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="K5" t="n">
-        <v>28051.7373980901</v>
+        <v>333.199023980245</v>
       </c>
       <c r="L5" t="n">
-        <v>28051.7373980901</v>
+        <v>29155.05191319577</v>
       </c>
       <c r="M5" t="n">
-        <v>28051.7373980901</v>
+        <v>29155.05191319577</v>
       </c>
       <c r="N5" t="n">
-        <v>28051.7373980901</v>
+        <v>29155.05191319577</v>
       </c>
       <c r="O5" t="n">
-        <v>7269.112932432081</v>
+        <v>29155.05191319577</v>
       </c>
       <c r="P5" t="n">
-        <v>7269.112932432081</v>
+        <v>29155.05191319577</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>394313.8650159192</v>
       </c>
       <c r="C6" t="n">
-        <v>394313.8650159193</v>
+        <v>394313.8650159192</v>
       </c>
       <c r="D6" t="n">
-        <v>394313.8650159194</v>
+        <v>394313.8650159192</v>
       </c>
       <c r="E6" t="n">
-        <v>7468.743176141848</v>
+        <v>-3274.170011217083</v>
       </c>
       <c r="F6" t="n">
-        <v>473127.2013621079</v>
+        <v>9005.329780654163</v>
       </c>
       <c r="G6" t="n">
-        <v>473127.2013621078</v>
+        <v>9005.329780654163</v>
       </c>
       <c r="H6" t="n">
-        <v>473127.2013621076</v>
+        <v>9005.329780654163</v>
       </c>
       <c r="I6" t="n">
-        <v>473127.2013621078</v>
+        <v>9005.329780654132</v>
       </c>
       <c r="J6" t="n">
-        <v>275359.8962612216</v>
+        <v>9005.329780654132</v>
       </c>
       <c r="K6" t="n">
-        <v>473127.2013621076</v>
+        <v>9005.329780654132</v>
       </c>
       <c r="L6" t="n">
-        <v>473127.2013621078</v>
+        <v>118423.6460356686</v>
       </c>
       <c r="M6" t="n">
-        <v>473127.2013621076</v>
+        <v>392692.1910566922</v>
       </c>
       <c r="N6" t="n">
-        <v>473127.2013621078</v>
+        <v>392692.191056692</v>
       </c>
       <c r="O6" t="n">
-        <v>196461.4373337778</v>
+        <v>392692.1910566922</v>
       </c>
       <c r="P6" t="n">
-        <v>196461.4373337778</v>
+        <v>392692.1910566922</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="M2" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="N2" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="F3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="G3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="H3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="I3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="J3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="K3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="L3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="M3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="N3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="O3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="P3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>342.8356812762793</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333.4455473592699</v>
+        <v>15.28435889817594</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28403,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>115.4744376461978</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28640,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28877,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,76 +29114,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29351,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.5391974632859</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>247.2091313761079</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.4276389757292</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>187.1313384208503</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>171.5818988392022</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>138.9352602797518</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>133.6102077246294</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>148.0530168059528</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>182.9902552191081</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.4894883479167</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.4961873656892</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29588,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>195.559634637931</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>214.7813755111856</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>180.7611153144678</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>197.9362491610792</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>184.1437201392488</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>169.6339686193251</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>149.631802706106</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>137.0300227191484</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>138.3493458270501</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>108.1766334547839</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>69.42235938738369</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>49.23998181247774</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26.89266408959261</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>61.07341979204944</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>80.75037203953292</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.9175601506888</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>192.1984848054242</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>226.4000077278574</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>241.8287383772942</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>238.5568750784579</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5391974632748</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>169.92444481789</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>171.7086235718632</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>179.6660901299454</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>163.855985710936</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>139.7869691951287</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>129.7913943420368</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>131.4986354211551</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>115.4744376461909</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>140.0015246507703</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>151.084079332853</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>195.8453499965998</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>215.7045047368257</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>232.1699497460494</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>247.2091313761078</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.9420418072343</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.4841404602585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="C32" t="n">
-        <v>247.2091313761079</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D32" t="n">
-        <v>247.2091313761079</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="F32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="G32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="H32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="I32" t="n">
-        <v>247.2091313761079</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J32" t="n">
-        <v>180.4276389757292</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K32" t="n">
-        <v>187.1313384208503</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="L32" t="n">
-        <v>171.5818988392022</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="M32" t="n">
-        <v>138.9352602797518</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="N32" t="n">
-        <v>133.6102077246294</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="O32" t="n">
-        <v>148.0530168059528</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="P32" t="n">
-        <v>182.9902552191081</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.4894883479167</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="R32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="S32" t="n">
-        <v>247.2091313761079</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T32" t="n">
-        <v>220.4961873656892</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U32" t="n">
-        <v>247.2091313761079</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V32" t="n">
-        <v>247.2091313761079</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W32" t="n">
-        <v>247.2091313761079</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>247.2091313761079</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.2091313761079</v>
+        <v>342.8356812762794</v>
       </c>
     </row>
     <row r="33">
@@ -29840,61 +29840,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.6339686193251</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H33" t="n">
-        <v>149.631802706106</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I33" t="n">
-        <v>137.0300227191484</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J33" t="n">
-        <v>138.3493458270501</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K33" t="n">
-        <v>108.1766334547839</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L33" t="n">
-        <v>69.42235938738369</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M33" t="n">
-        <v>49.23998181247774</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N33" t="n">
-        <v>26.89266408959261</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O33" t="n">
-        <v>61.07341979204944</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P33" t="n">
-        <v>80.75037203953292</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.9175601506888</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R33" t="n">
-        <v>192.1984848054242</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S33" t="n">
-        <v>226.4000077278574</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T33" t="n">
-        <v>241.8287383772942</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U33" t="n">
-        <v>247.2091313761079</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V33" t="n">
-        <v>247.2091313761079</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W33" t="n">
-        <v>247.2091313761079</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X33" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.2091313761079</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="34">
@@ -29919,55 +29919,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.92444481789</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H34" t="n">
-        <v>171.7086235718632</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I34" t="n">
-        <v>179.6660901299454</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J34" t="n">
-        <v>163.855985710936</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K34" t="n">
-        <v>139.7869691951287</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L34" t="n">
-        <v>129.7913943420368</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M34" t="n">
-        <v>131.4986354211551</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N34" t="n">
-        <v>115.4744376461909</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O34" t="n">
-        <v>140.0015246507703</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P34" t="n">
-        <v>151.084079332853</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q34" t="n">
-        <v>195.8453499965998</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R34" t="n">
-        <v>247.2091313761079</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S34" t="n">
-        <v>247.2091313761079</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T34" t="n">
-        <v>215.7045047368257</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U34" t="n">
-        <v>247.2091313761079</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V34" t="n">
         <v>232.1699497460494</v>
       </c>
       <c r="W34" t="n">
-        <v>247.2091313761079</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X34" t="n">
         <v>214.9420418072343</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="C35" t="n">
-        <v>247.2091313761078</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>247.2091313761078</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="F35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="G35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="H35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="I35" t="n">
-        <v>247.2091313761078</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J35" t="n">
-        <v>180.4276389757292</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K35" t="n">
-        <v>187.1313384208503</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="L35" t="n">
-        <v>171.5818988392022</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="M35" t="n">
-        <v>138.9352602797518</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="N35" t="n">
-        <v>133.6102077246294</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="O35" t="n">
-        <v>148.0530168059528</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="P35" t="n">
-        <v>182.9902552191081</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.4894883479167</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="R35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="S35" t="n">
-        <v>247.2091313761078</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4961873656892</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U35" t="n">
-        <v>247.2091313761078</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V35" t="n">
-        <v>247.2091313761078</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>247.2091313761078</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
-        <v>247.2091313761078</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
     </row>
     <row r="36">
@@ -30077,61 +30077,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.6339686193251</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H36" t="n">
-        <v>149.631802706106</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I36" t="n">
-        <v>137.0300227191484</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J36" t="n">
-        <v>138.3493458270501</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K36" t="n">
-        <v>108.1766334547839</v>
+        <v>218.6836190733978</v>
       </c>
       <c r="L36" t="n">
-        <v>69.42235938738369</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M36" t="n">
-        <v>49.23998181247774</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N36" t="n">
-        <v>26.89266408959261</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O36" t="n">
-        <v>61.07341979204944</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P36" t="n">
-        <v>80.75037203953292</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.9175601506888</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R36" t="n">
-        <v>192.1984848054242</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S36" t="n">
-        <v>226.4000077278574</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T36" t="n">
-        <v>241.8287383772942</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U36" t="n">
-        <v>247.2091313761078</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V36" t="n">
-        <v>247.2091313761078</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W36" t="n">
-        <v>247.2091313761078</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X36" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.2091313761078</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="37">
@@ -30156,55 +30156,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.92444481789</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H37" t="n">
-        <v>171.7086235718632</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I37" t="n">
-        <v>179.6660901299454</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J37" t="n">
-        <v>163.855985710936</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K37" t="n">
-        <v>139.7869691951287</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L37" t="n">
-        <v>129.7913943420368</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M37" t="n">
-        <v>131.4986354211551</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N37" t="n">
-        <v>115.4744376461909</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O37" t="n">
-        <v>140.0015246507703</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P37" t="n">
-        <v>151.084079332853</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q37" t="n">
-        <v>195.8453499965998</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R37" t="n">
-        <v>247.2091313761078</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S37" t="n">
-        <v>247.2091313761078</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T37" t="n">
-        <v>215.7045047368257</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U37" t="n">
-        <v>247.2091313761078</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V37" t="n">
         <v>232.1699497460494</v>
       </c>
       <c r="W37" t="n">
-        <v>247.2091313761078</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X37" t="n">
         <v>214.9420418072343</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="C38" t="n">
-        <v>247.2091313761078</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D38" t="n">
-        <v>247.2091313761078</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="F38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="G38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="H38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="I38" t="n">
-        <v>247.2091313761078</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J38" t="n">
-        <v>180.4276389757292</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K38" t="n">
-        <v>187.1313384208529</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="L38" t="n">
-        <v>171.5818988392022</v>
+        <v>342.8356812762841</v>
       </c>
       <c r="M38" t="n">
-        <v>138.9352602797518</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="N38" t="n">
-        <v>133.6102077246294</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="O38" t="n">
-        <v>148.0530168059528</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="P38" t="n">
-        <v>182.9902552191081</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.4894883479167</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="R38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="S38" t="n">
-        <v>247.2091313761078</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T38" t="n">
-        <v>220.4961873656892</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U38" t="n">
-        <v>247.2091313761078</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V38" t="n">
-        <v>247.2091313761078</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W38" t="n">
-        <v>247.2091313761078</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X38" t="n">
-        <v>247.2091313761078</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>247.2091313761078</v>
+        <v>342.8356812762794</v>
       </c>
     </row>
     <row r="39">
@@ -30314,61 +30314,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.6339686193251</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H39" t="n">
-        <v>149.631802706106</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I39" t="n">
-        <v>137.0300227191484</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J39" t="n">
-        <v>138.3493458270501</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K39" t="n">
-        <v>108.1766334547839</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L39" t="n">
-        <v>69.42235938738369</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M39" t="n">
-        <v>49.23998181247774</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N39" t="n">
-        <v>26.89266408959261</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O39" t="n">
-        <v>61.07341979204944</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P39" t="n">
-        <v>80.75037203953292</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.9175601506888</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R39" t="n">
-        <v>192.1984848054242</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S39" t="n">
-        <v>226.4000077278574</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T39" t="n">
-        <v>241.8287383772942</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U39" t="n">
-        <v>247.2091313761078</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V39" t="n">
-        <v>247.2091313761078</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W39" t="n">
-        <v>247.2091313761078</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X39" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y39" t="n">
-        <v>247.2091313761078</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="40">
@@ -30393,55 +30393,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.92444481789</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H40" t="n">
-        <v>171.7086235718632</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I40" t="n">
-        <v>179.6660901299454</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J40" t="n">
-        <v>163.855985710936</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K40" t="n">
-        <v>139.7869691951287</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7913943420368</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M40" t="n">
-        <v>131.4986354211551</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N40" t="n">
-        <v>115.4744376461909</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O40" t="n">
-        <v>140.0015246507703</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P40" t="n">
-        <v>151.084079332853</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q40" t="n">
-        <v>195.8453499965998</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R40" t="n">
-        <v>247.2091313761078</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S40" t="n">
-        <v>247.2091313761078</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T40" t="n">
-        <v>215.7045047368257</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U40" t="n">
-        <v>247.2091313761078</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V40" t="n">
         <v>232.1699497460494</v>
       </c>
       <c r="W40" t="n">
-        <v>247.2091313761078</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X40" t="n">
         <v>214.9420418072343</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>342.8356812762841</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>248.0379706174275</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30536,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.357376985566646e-12</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>339.3965869157061</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>288.9845562386429</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>286.4978459895071</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>226.0951847626277</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>248.0379706174325</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>342.8356812762794</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30773,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>195.559634637931</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>170.318315326581</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>156.2411511682884</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>160.5919597891445</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.0051020595069</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.6836190733886</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>218.0126389606522</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>222.6378295237739</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>204.8798368684078</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.8969102679831</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>211.4305779189585</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>223.2738170277802</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>234.6880110682096</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>239.1114476630718</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>244.587135850839</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>258.0443445443383</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>255.0969898936781</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>170.4981781085575</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.357376985566646e-12</v>
+        <v>176.8096341016165</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>196.9198149074749</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>204.4189293611315</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>206.4443460563218</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>215.0898873927373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>221.4339366118869</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>203.2712783898892</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>221.096117408034</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>220.4745129604987</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>243.8876894542249</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>273.6101981747939</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>265.0160451550956</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.1559106151325</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>292.9865001125928</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>232.1699497460494</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713937</v>
       </c>
       <c r="H11" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279163</v>
       </c>
       <c r="I11" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746443</v>
       </c>
       <c r="J11" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222352</v>
       </c>
       <c r="K11" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914965</v>
       </c>
       <c r="L11" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M11" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N11" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O11" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P11" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398578</v>
       </c>
       <c r="R11" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819272</v>
       </c>
       <c r="S11" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T11" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971148</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758596</v>
       </c>
       <c r="H12" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998435</v>
       </c>
       <c r="I12" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J12" t="n">
-        <v>67.76179750628334</v>
+        <v>3.106041273826488</v>
       </c>
       <c r="K12" t="n">
-        <v>115.8157048785494</v>
+        <v>5.30871925994475</v>
       </c>
       <c r="L12" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N12" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O12" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P12" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004834</v>
       </c>
       <c r="R12" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S12" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016512</v>
       </c>
       <c r="T12" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058837</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156972</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884184</v>
       </c>
       <c r="H13" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920667</v>
       </c>
       <c r="I13" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502623</v>
       </c>
       <c r="J13" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K13" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798169</v>
       </c>
       <c r="L13" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274905</v>
       </c>
       <c r="M13" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971272</v>
       </c>
       <c r="N13" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114683</v>
       </c>
       <c r="O13" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210483</v>
       </c>
       <c r="P13" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366106</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624566</v>
       </c>
       <c r="R13" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S13" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197254</v>
       </c>
       <c r="T13" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755011</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.340484612499576</v>
+        <v>0.0614446588871394</v>
       </c>
       <c r="H14" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I14" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746445</v>
       </c>
       <c r="J14" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222354</v>
       </c>
       <c r="K14" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L14" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M14" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N14" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O14" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P14" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R14" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S14" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T14" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758598</v>
       </c>
       <c r="H15" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I15" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855483</v>
       </c>
       <c r="J15" t="n">
-        <v>67.76179750628334</v>
+        <v>3.106041273826491</v>
       </c>
       <c r="K15" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L15" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N15" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O15" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P15" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004837</v>
       </c>
       <c r="R15" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231875</v>
       </c>
       <c r="S15" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T15" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H16" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I16" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502627</v>
       </c>
       <c r="J16" t="n">
-        <v>42.51157412808265</v>
+        <v>1.94863047788712</v>
       </c>
       <c r="K16" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798172</v>
       </c>
       <c r="L16" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M16" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N16" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O16" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210486</v>
       </c>
       <c r="P16" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624568</v>
       </c>
       <c r="R16" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S16" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T16" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755013</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.340484612499576</v>
+        <v>0.0614446588871394</v>
       </c>
       <c r="H17" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I17" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746445</v>
       </c>
       <c r="J17" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K17" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L17" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M17" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N17" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O17" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P17" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R17" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S17" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T17" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758598</v>
       </c>
       <c r="H18" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I18" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855483</v>
       </c>
       <c r="J18" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K18" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L18" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M18" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N18" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O18" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P18" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R18" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231875</v>
       </c>
       <c r="S18" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T18" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H19" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I19" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502627</v>
       </c>
       <c r="J19" t="n">
-        <v>42.51157412808265</v>
+        <v>1.94863047788712</v>
       </c>
       <c r="K19" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L19" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M19" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N19" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O19" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P19" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624568</v>
       </c>
       <c r="R19" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S19" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T19" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755013</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.340484612499576</v>
+        <v>0.0614446588871394</v>
       </c>
       <c r="H20" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I20" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746445</v>
       </c>
       <c r="J20" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K20" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L20" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M20" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N20" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O20" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P20" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R20" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S20" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T20" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758598</v>
       </c>
       <c r="H21" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I21" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855483</v>
       </c>
       <c r="J21" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K21" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L21" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M21" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N21" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O21" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P21" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R21" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231875</v>
       </c>
       <c r="S21" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T21" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H22" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I22" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502627</v>
       </c>
       <c r="J22" t="n">
-        <v>42.51157412808265</v>
+        <v>1.94863047788712</v>
       </c>
       <c r="K22" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L22" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M22" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N22" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O22" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P22" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624568</v>
       </c>
       <c r="R22" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S22" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T22" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755013</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H23" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I23" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J23" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K23" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L23" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M23" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N23" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O23" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P23" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R23" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S23" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T23" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H24" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I24" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J24" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K24" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L24" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M24" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N24" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O24" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P24" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R24" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S24" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T24" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H25" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I25" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J25" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K25" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L25" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M25" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N25" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O25" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P25" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R25" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S25" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T25" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H26" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I26" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J26" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K26" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L26" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M26" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N26" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O26" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P26" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R26" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S26" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T26" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H27" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I27" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J27" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K27" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L27" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N27" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O27" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P27" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R27" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S27" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T27" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H28" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I28" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J28" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K28" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L28" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M28" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N28" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O28" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P28" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R28" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S28" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T28" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H29" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I29" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J29" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K29" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L29" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M29" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N29" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O29" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P29" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R29" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S29" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T29" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H30" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I30" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J30" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K30" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L30" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N30" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O30" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P30" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R30" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S30" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T30" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H31" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I31" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J31" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K31" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L31" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M31" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N31" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O31" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P31" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R31" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S31" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T31" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H32" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I32" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J32" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K32" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L32" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M32" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N32" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O32" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P32" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R32" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S32" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T32" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H33" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I33" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J33" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K33" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L33" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N33" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O33" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P33" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R33" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S33" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T33" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H34" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I34" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J34" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K34" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L34" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M34" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N34" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O34" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P34" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R34" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S34" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T34" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H35" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I35" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J35" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K35" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L35" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M35" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N35" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P35" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R35" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S35" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T35" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H36" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I36" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J36" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K36" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L36" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M36" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N36" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O36" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P36" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R36" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S36" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T36" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H37" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I37" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J37" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K37" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L37" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M37" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N37" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O37" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P37" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R37" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S37" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T37" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H38" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I38" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J38" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K38" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L38" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M38" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N38" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P38" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R38" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S38" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T38" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H39" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I39" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J39" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K39" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L39" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N39" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O39" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P39" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R39" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S39" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T39" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H40" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I40" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J40" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K40" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L40" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M40" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N40" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O40" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P40" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R40" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S40" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T40" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H41" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I41" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J41" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K41" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L41" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M41" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N41" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O41" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P41" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R41" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S41" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T41" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H42" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I42" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J42" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K42" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L42" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M42" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N42" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O42" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P42" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R42" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S42" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T42" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H43" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I43" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J43" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K43" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L43" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M43" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N43" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O43" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P43" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R43" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S43" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T43" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.340484612499576</v>
+        <v>0.06144465888713941</v>
       </c>
       <c r="H44" t="n">
-        <v>13.72823803776129</v>
+        <v>0.6292701128279167</v>
       </c>
       <c r="I44" t="n">
-        <v>51.67903302338997</v>
+        <v>2.368845211746444</v>
       </c>
       <c r="J44" t="n">
-        <v>113.771955880136</v>
+        <v>5.215038617222353</v>
       </c>
       <c r="K44" t="n">
-        <v>170.5146695272431</v>
+        <v>7.815991027914966</v>
       </c>
       <c r="L44" t="n">
-        <v>211.5385254870271</v>
+        <v>9.69642800733226</v>
       </c>
       <c r="M44" t="n">
-        <v>235.3773687145664</v>
+        <v>10.78914445981643</v>
       </c>
       <c r="N44" t="n">
-        <v>239.1860206198309</v>
+        <v>10.96372409687951</v>
       </c>
       <c r="O44" t="n">
-        <v>225.8565767542882</v>
+        <v>10.35273377007052</v>
       </c>
       <c r="P44" t="n">
-        <v>192.7633628832048</v>
+        <v>8.835818753794262</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.7572576980637</v>
+        <v>6.635331907398581</v>
       </c>
       <c r="R44" t="n">
-        <v>84.20421653992659</v>
+        <v>3.859723053819275</v>
       </c>
       <c r="S44" t="n">
-        <v>30.54629310733413</v>
+        <v>1.400170164390691</v>
       </c>
       <c r="T44" t="n">
-        <v>5.867971391216899</v>
+        <v>0.2689739942784529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.004915572710971152</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.03287579083758599</v>
       </c>
       <c r="H45" t="n">
-        <v>6.926859389482193</v>
+        <v>0.3175109272998436</v>
       </c>
       <c r="I45" t="n">
-        <v>24.6938447808516</v>
+        <v>1.131907710855482</v>
       </c>
       <c r="J45" t="n">
-        <v>67.76179750628334</v>
+        <v>3.10604127382649</v>
       </c>
       <c r="K45" t="n">
-        <v>115.8157048785494</v>
+        <v>5.308719259944751</v>
       </c>
       <c r="L45" t="n">
-        <v>155.7285077549119</v>
+        <v>7.138228181643396</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7278233108021</v>
+        <v>8.329975599505886</v>
       </c>
       <c r="N45" t="n">
-        <v>186.537618045824</v>
+        <v>8.550445267008822</v>
       </c>
       <c r="O45" t="n">
-        <v>170.6454774301728</v>
+        <v>7.821986954239153</v>
       </c>
       <c r="P45" t="n">
-        <v>136.9580400087537</v>
+        <v>6.277834129328152</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.55282273909614</v>
+        <v>4.196565862004836</v>
       </c>
       <c r="R45" t="n">
-        <v>44.53070913601723</v>
+        <v>2.041182873231874</v>
       </c>
       <c r="S45" t="n">
-        <v>13.3220933308161</v>
+        <v>0.6106533956016515</v>
       </c>
       <c r="T45" t="n">
-        <v>2.89090998135065</v>
+        <v>0.1325125078058838</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.002162880976156974</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.02756195866884185</v>
       </c>
       <c r="H46" t="n">
-        <v>5.346061398645347</v>
+        <v>0.2450508688920669</v>
       </c>
       <c r="I46" t="n">
-        <v>18.08258804367975</v>
+        <v>0.8288632661502626</v>
       </c>
       <c r="J46" t="n">
-        <v>42.51157412808265</v>
+        <v>1.948630477887119</v>
       </c>
       <c r="K46" t="n">
-        <v>69.85957533199128</v>
+        <v>3.202198470798171</v>
       </c>
       <c r="L46" t="n">
-        <v>89.3962046149754</v>
+        <v>4.097711564274907</v>
       </c>
       <c r="M46" t="n">
-        <v>94.2557634937031</v>
+        <v>4.320462302971273</v>
       </c>
       <c r="N46" t="n">
-        <v>92.014572109813</v>
+        <v>4.217731366114684</v>
       </c>
       <c r="O46" t="n">
-        <v>84.99035033347425</v>
+        <v>3.895757576210485</v>
       </c>
       <c r="P46" t="n">
-        <v>72.72392724701187</v>
+        <v>3.333493619366108</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.35027765124975</v>
+        <v>2.307938193624567</v>
       </c>
       <c r="R46" t="n">
-        <v>27.03642093834342</v>
+        <v>1.23928588705538</v>
       </c>
       <c r="S46" t="n">
-        <v>10.47893629979869</v>
+        <v>0.4803297706197256</v>
       </c>
       <c r="T46" t="n">
-        <v>2.569170610800931</v>
+        <v>0.1177647324941424</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.001503379563755012</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.892264536872972e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
